--- a/team_specific_matrix/UMBC_A.xlsx
+++ b/team_specific_matrix/UMBC_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1751412429378531</v>
+        <v>0.2071713147410359</v>
       </c>
       <c r="C2">
-        <v>0.5649717514124294</v>
+        <v>0.5099601593625498</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01129943502824859</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1468926553672316</v>
+        <v>0.1633466135458167</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1016949152542373</v>
+        <v>0.1115537848605578</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0303030303030303</v>
+        <v>0.0234375</v>
       </c>
       <c r="C3">
-        <v>0.0303030303030303</v>
+        <v>0.0390625</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0202020202020202</v>
+        <v>0.0234375</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7474747474747475</v>
+        <v>0.7265625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1717171717171717</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1379310344827586</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4827586206896552</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3793103448275862</v>
+        <v>0.3658536585365854</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0625</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01136363636363636</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05113636363636364</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2443181818181818</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01136363636363636</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1363636363636364</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.03977272727272727</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="S6">
-        <v>0.4431818181818182</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1103448275862069</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01379310344827586</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04827586206896552</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1103448275862069</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006896551724137931</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1862068965517241</v>
+        <v>0.1897435897435897</v>
       </c>
       <c r="R7">
-        <v>0.08275862068965517</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="S7">
-        <v>0.4413793103448276</v>
+        <v>0.4205128205128205</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07175925925925926</v>
+        <v>0.06702898550724638</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02777777777777778</v>
+        <v>0.02355072463768116</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05555555555555555</v>
+        <v>0.05253623188405797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1087962962962963</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0162037037037037</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2060185185185185</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="R8">
-        <v>0.09722222222222222</v>
+        <v>0.09057971014492754</v>
       </c>
       <c r="S8">
-        <v>0.4166666666666667</v>
+        <v>0.4039855072463768</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1058823529411765</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02941176470588235</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06470588235294118</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05294117647058823</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01176470588235294</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2058823529411765</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="R9">
-        <v>0.07647058823529412</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S9">
-        <v>0.4529411764705882</v>
+        <v>0.4393939393939394</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07792207792207792</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.00974025974025974</v>
+        <v>0.01274900398406375</v>
       </c>
       <c r="E10">
-        <v>0.003246753246753247</v>
+        <v>0.002390438247011952</v>
       </c>
       <c r="F10">
-        <v>0.08116883116883117</v>
+        <v>0.07569721115537849</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1017316017316017</v>
+        <v>0.09880478087649402</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00974025974025974</v>
+        <v>0.01035856573705179</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.237012987012987</v>
+        <v>0.2310756972111554</v>
       </c>
       <c r="R10">
-        <v>0.09740259740259741</v>
+        <v>0.100398406374502</v>
       </c>
       <c r="S10">
-        <v>0.3820346320346321</v>
+        <v>0.3888446215139442</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1818181818181818</v>
+        <v>0.1684981684981685</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07575757575757576</v>
+        <v>0.06227106227106227</v>
       </c>
       <c r="K11">
-        <v>0.1868686868686869</v>
+        <v>0.1941391941391941</v>
       </c>
       <c r="L11">
-        <v>0.5454545454545454</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0101010101010101</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.734375</v>
+        <v>0.7423312883435583</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1640625</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="K12">
-        <v>0.0078125</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="L12">
-        <v>0.0546875</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0390625</v>
+        <v>0.03067484662576687</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02941176470588235</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G13">
-        <v>0.6764705882352942</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01612903225806452</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1935483870967742</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I15">
-        <v>0.06451612903225806</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="J15">
-        <v>0.2903225806451613</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="K15">
-        <v>0.06451612903225806</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01612903225806452</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06451612903225806</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2903225806451613</v>
+        <v>0.2705882352941176</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02678571428571428</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1875</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="I16">
-        <v>0.08035714285714286</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="J16">
-        <v>0.3482142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K16">
-        <v>0.08928571428571429</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008928571428571428</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0625</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1964285714285714</v>
+        <v>0.1493506493506493</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01538461538461539</v>
+        <v>0.02087286527514232</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2282051282051282</v>
+        <v>0.2030360531309298</v>
       </c>
       <c r="I17">
-        <v>0.1102564102564103</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J17">
-        <v>0.382051282051282</v>
+        <v>0.396584440227704</v>
       </c>
       <c r="K17">
-        <v>0.08461538461538462</v>
+        <v>0.09297912713472485</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005128205128205128</v>
+        <v>0.01518026565464896</v>
       </c>
       <c r="N17">
-        <v>0.005128205128205128</v>
+        <v>0.003795066413662239</v>
       </c>
       <c r="O17">
-        <v>0.03333333333333333</v>
+        <v>0.04364326375711575</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1358974358974359</v>
+        <v>0.127134724857685</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0245398773006135</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2331288343558282</v>
+        <v>0.2453703703703704</v>
       </c>
       <c r="I18">
-        <v>0.0736196319018405</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="J18">
-        <v>0.3865030674846626</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K18">
-        <v>0.1165644171779141</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01840490797546012</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05521472392638037</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09202453987730061</v>
+        <v>0.1064814814814815</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01685393258426966</v>
+        <v>0.01316752011704462</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2359550561797753</v>
+        <v>0.246525237746891</v>
       </c>
       <c r="I19">
-        <v>0.08707865168539326</v>
+        <v>0.07827359180687637</v>
       </c>
       <c r="J19">
-        <v>0.3726591760299626</v>
+        <v>0.3803950256035113</v>
       </c>
       <c r="K19">
-        <v>0.08052434456928839</v>
+        <v>0.08339429407461595</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02153558052434457</v>
+        <v>0.02194586686174104</v>
       </c>
       <c r="N19">
-        <v>0.001872659176029963</v>
+        <v>0.002194586686174104</v>
       </c>
       <c r="O19">
-        <v>0.04588014981273408</v>
+        <v>0.04901243599122165</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1376404494382023</v>
+        <v>0.1250914411119239</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UMBC_A.xlsx
+++ b/team_specific_matrix/UMBC_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2071713147410359</v>
+        <v>0.2007575757575757</v>
       </c>
       <c r="C2">
-        <v>0.5099601593625498</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00796812749003984</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1633466135458167</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1115537848605578</v>
+        <v>0.1060606060606061</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0234375</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C3">
-        <v>0.0390625</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0234375</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7265625</v>
+        <v>0.7318840579710145</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1875</v>
+        <v>0.1811594202898551</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0975609756097561</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5365853658536586</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3658536585365854</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06306306306306306</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01351351351351351</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04504504504504504</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2567567567567567</v>
+        <v>0.2521008403361344</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009009009009009009</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R6">
-        <v>0.04054054054054054</v>
+        <v>0.04621848739495799</v>
       </c>
       <c r="S6">
-        <v>0.4054054054054054</v>
+        <v>0.3949579831932773</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09743589743589744</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01538461538461539</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04102564102564103</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1333333333333333</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01025641025641026</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1897435897435897</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="R7">
-        <v>0.09230769230769231</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.4205128205128205</v>
+        <v>0.430622009569378</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06702898550724638</v>
+        <v>0.06712564543889846</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02355072463768116</v>
+        <v>0.02237521514629948</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05253623188405797</v>
+        <v>0.05507745266781412</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1141304347826087</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01630434782608696</v>
+        <v>0.01549053356282272</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2318840579710145</v>
+        <v>0.2426850258175559</v>
       </c>
       <c r="R8">
-        <v>0.09057971014492754</v>
+        <v>0.08777969018932874</v>
       </c>
       <c r="S8">
-        <v>0.4039855072463768</v>
+        <v>0.4010327022375215</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1161616161616162</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04040404040404041</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06565656565656566</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0505050505050505</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01515151515151515</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.202020202020202</v>
+        <v>0.2047619047619048</v>
       </c>
       <c r="R9">
-        <v>0.0707070707070707</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S9">
-        <v>0.4393939393939394</v>
+        <v>0.4428571428571428</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0796812749003984</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01274900398406375</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="E10">
-        <v>0.002390438247011952</v>
+        <v>0.002212389380530973</v>
       </c>
       <c r="F10">
-        <v>0.07569721115537849</v>
+        <v>0.07669616519174041</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09880478087649402</v>
+        <v>0.09955752212389381</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01035856573705179</v>
+        <v>0.01032448377581121</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2310756972111554</v>
+        <v>0.2323008849557522</v>
       </c>
       <c r="R10">
-        <v>0.100398406374502</v>
+        <v>0.09955752212389381</v>
       </c>
       <c r="S10">
-        <v>0.3888446215139442</v>
+        <v>0.3864306784660767</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1684981684981685</v>
+        <v>0.1712328767123288</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06227106227106227</v>
+        <v>0.06506849315068493</v>
       </c>
       <c r="K11">
-        <v>0.1941391941391941</v>
+        <v>0.1952054794520548</v>
       </c>
       <c r="L11">
-        <v>0.5641025641025641</v>
+        <v>0.5582191780821918</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01098901098901099</v>
+        <v>0.01027397260273973</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7423312883435583</v>
+        <v>0.7456647398843931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1840490797546012</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="K12">
-        <v>0.006134969325153374</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="L12">
-        <v>0.03680981595092025</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03067484662576687</v>
+        <v>0.02890173410404624</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.6595744680851063</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2978723404255319</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01176470588235294</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1764705882352941</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="I15">
-        <v>0.07647058823529412</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J15">
-        <v>0.3235294117647059</v>
+        <v>0.3297297297297297</v>
       </c>
       <c r="K15">
-        <v>0.07647058823529412</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01176470588235294</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05294117647058823</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2705882352941176</v>
+        <v>0.2594594594594595</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02597402597402598</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2012987012987013</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="I16">
-        <v>0.08441558441558442</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="J16">
-        <v>0.3571428571428572</v>
+        <v>0.3597560975609756</v>
       </c>
       <c r="K16">
-        <v>0.1168831168831169</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01298701298701299</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="O16">
-        <v>0.05194805194805195</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1493506493506493</v>
+        <v>0.1524390243902439</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02087286527514232</v>
+        <v>0.01913043478260869</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2030360531309298</v>
+        <v>0.2052173913043478</v>
       </c>
       <c r="I17">
-        <v>0.09677419354838709</v>
+        <v>0.09217391304347826</v>
       </c>
       <c r="J17">
-        <v>0.396584440227704</v>
+        <v>0.4052173913043478</v>
       </c>
       <c r="K17">
-        <v>0.09297912713472485</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01518026565464896</v>
+        <v>0.01391304347826087</v>
       </c>
       <c r="N17">
-        <v>0.003795066413662239</v>
+        <v>0.003478260869565218</v>
       </c>
       <c r="O17">
-        <v>0.04364326375711575</v>
+        <v>0.04173913043478261</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.127134724857685</v>
+        <v>0.1234782608695652</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01851851851851852</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2453703703703704</v>
+        <v>0.2358078602620087</v>
       </c>
       <c r="I18">
-        <v>0.06944444444444445</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="J18">
-        <v>0.3703703703703703</v>
+        <v>0.37117903930131</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02314814814814815</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05555555555555555</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1064814814814815</v>
+        <v>0.1135371179039301</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01316752011704462</v>
+        <v>0.01299589603283174</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.246525237746891</v>
+        <v>0.2387140902872777</v>
       </c>
       <c r="I19">
-        <v>0.07827359180687637</v>
+        <v>0.07797537619699042</v>
       </c>
       <c r="J19">
-        <v>0.3803950256035113</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="K19">
-        <v>0.08339429407461595</v>
+        <v>0.08207934336525308</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02194586686174104</v>
+        <v>0.02120383036935704</v>
       </c>
       <c r="N19">
-        <v>0.002194586686174104</v>
+        <v>0.002051983584131327</v>
       </c>
       <c r="O19">
-        <v>0.04901243599122165</v>
+        <v>0.05129958960328317</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1250914411119239</v>
+        <v>0.1299589603283174</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UMBC_A.xlsx
+++ b/team_specific_matrix/UMBC_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2007575757575757</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C2">
-        <v>0.5227272727272727</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01136363636363636</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1590909090909091</v>
+        <v>0.1575091575091575</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1060606060606061</v>
+        <v>0.1062271062271062</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02173913043478261</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="C3">
-        <v>0.03623188405797102</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02898550724637681</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7318840579710145</v>
+        <v>0.7310344827586207</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1811594202898551</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01260504201680672</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05042016806722689</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2521008403361344</v>
+        <v>0.2479674796747967</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008403361344537815</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1764705882352941</v>
+        <v>0.1747967479674797</v>
       </c>
       <c r="R6">
-        <v>0.04621848739495799</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="S6">
-        <v>0.3949579831932773</v>
+        <v>0.3943089430894309</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09569377990430622</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01913875598086124</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03827751196172249</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1244019138755981</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009569377990430622</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1913875598086124</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="R7">
-        <v>0.09090909090909091</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="S7">
-        <v>0.430622009569378</v>
+        <v>0.4345794392523364</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06712564543889846</v>
+        <v>0.06833333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02237521514629948</v>
+        <v>0.02166666666666667</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05507745266781412</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.108433734939759</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01549053356282272</v>
+        <v>0.015</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2426850258175559</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="R8">
-        <v>0.08777969018932874</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="S8">
-        <v>0.4010327022375215</v>
+        <v>0.4033333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1095238095238095</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0380952380952381</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06190476190476191</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06190476190476191</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01428571428571429</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2047619047619048</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="R9">
-        <v>0.06666666666666667</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="S9">
-        <v>0.4428571428571428</v>
+        <v>0.4398148148148148</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07964601769911504</v>
+        <v>0.08071428571428571</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01327433628318584</v>
+        <v>0.01285714285714286</v>
       </c>
       <c r="E10">
-        <v>0.002212389380530973</v>
+        <v>0.002142857142857143</v>
       </c>
       <c r="F10">
-        <v>0.07669616519174041</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09955752212389381</v>
+        <v>0.09928571428571428</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01032448377581121</v>
+        <v>0.01</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2323008849557522</v>
+        <v>0.235</v>
       </c>
       <c r="R10">
-        <v>0.09955752212389381</v>
+        <v>0.09857142857142857</v>
       </c>
       <c r="S10">
-        <v>0.3864306784660767</v>
+        <v>0.3871428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1712328767123288</v>
+        <v>0.1721854304635762</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06506849315068493</v>
+        <v>0.06291390728476821</v>
       </c>
       <c r="K11">
-        <v>0.1952054794520548</v>
+        <v>0.195364238410596</v>
       </c>
       <c r="L11">
-        <v>0.5582191780821918</v>
+        <v>0.5596026490066225</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01027397260273973</v>
+        <v>0.009933774834437087</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7456647398843931</v>
+        <v>0.7374301675977654</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1849710982658959</v>
+        <v>0.1899441340782123</v>
       </c>
       <c r="K12">
-        <v>0.005780346820809248</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.03468208092485549</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02890173410404624</v>
+        <v>0.0335195530726257</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="G13">
-        <v>0.673469387755102</v>
+        <v>0.66</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01081081081081081</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1837837837837838</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I15">
-        <v>0.08108108108108109</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="J15">
-        <v>0.3297297297297297</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="K15">
-        <v>0.07027027027027027</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01081081081081081</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05405405405405406</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2594594594594595</v>
+        <v>0.2578947368421053</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02439024390243903</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1951219512195122</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.07926829268292683</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="J16">
-        <v>0.3597560975609756</v>
+        <v>0.3470588235294118</v>
       </c>
       <c r="K16">
-        <v>0.1219512195121951</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01219512195121951</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N16">
-        <v>0.006097560975609756</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="O16">
-        <v>0.04878048780487805</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1524390243902439</v>
+        <v>0.1529411764705882</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01913043478260869</v>
+        <v>0.01842546063651591</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2052173913043478</v>
+        <v>0.202680067001675</v>
       </c>
       <c r="I17">
-        <v>0.09217391304347826</v>
+        <v>0.08877721943048576</v>
       </c>
       <c r="J17">
-        <v>0.4052173913043478</v>
+        <v>0.4170854271356784</v>
       </c>
       <c r="K17">
-        <v>0.09565217391304348</v>
+        <v>0.09212730318257957</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01391304347826087</v>
+        <v>0.01340033500837521</v>
       </c>
       <c r="N17">
-        <v>0.003478260869565218</v>
+        <v>0.003350083752093802</v>
       </c>
       <c r="O17">
-        <v>0.04173913043478261</v>
+        <v>0.04187604690117253</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1234782608695652</v>
+        <v>0.1222780569514238</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01746724890829694</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2358078602620087</v>
+        <v>0.2360515021459227</v>
       </c>
       <c r="I18">
-        <v>0.06986899563318777</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="J18">
-        <v>0.37117903930131</v>
+        <v>0.3648068669527897</v>
       </c>
       <c r="K18">
-        <v>0.1091703056768559</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02620087336244541</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05676855895196507</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1135371179039301</v>
+        <v>0.1158798283261803</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01299589603283174</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2387140902872777</v>
+        <v>0.2390728476821192</v>
       </c>
       <c r="I19">
-        <v>0.07797537619699042</v>
+        <v>0.07748344370860927</v>
       </c>
       <c r="J19">
-        <v>0.3837209302325582</v>
+        <v>0.3827814569536424</v>
       </c>
       <c r="K19">
-        <v>0.08207934336525308</v>
+        <v>0.08344370860927153</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02120383036935704</v>
+        <v>0.02119205298013245</v>
       </c>
       <c r="N19">
-        <v>0.002051983584131327</v>
+        <v>0.001986754966887417</v>
       </c>
       <c r="O19">
-        <v>0.05129958960328317</v>
+        <v>0.05099337748344371</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1299589603283174</v>
+        <v>0.1298013245033112</v>
       </c>
     </row>
   </sheetData>
